--- a/qa/01.测试用例/副本内容设计/第四章/第四章副本测试用例.xlsx
+++ b/qa/01.测试用例/副本内容设计/第四章/第四章副本测试用例.xlsx
@@ -5,30 +5,30 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\01.测试用例\副本内容设计\第三章\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\qa\01.测试用例\副本内容设计\第四章\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1760" windowWidth="3620" windowHeight="1080" tabRatio="659"/>
+    <workbookView xWindow="0" yWindow="1760" windowWidth="3620" windowHeight="1080" tabRatio="659" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="5" r:id="rId1"/>
-    <sheet name="第三章" sheetId="35" r:id="rId2"/>
-    <sheet name="3-1" sheetId="24" r:id="rId3"/>
-    <sheet name="3-2" sheetId="36" r:id="rId4"/>
-    <sheet name="3-3" sheetId="37" r:id="rId5"/>
-    <sheet name="3-4" sheetId="38" r:id="rId6"/>
-    <sheet name="3-5" sheetId="39" r:id="rId7"/>
-    <sheet name="3-6" sheetId="40" r:id="rId8"/>
-    <sheet name="3-7" sheetId="41" r:id="rId9"/>
-    <sheet name="3-8" sheetId="42" r:id="rId10"/>
+    <sheet name="第四章" sheetId="35" r:id="rId2"/>
+    <sheet name="4-1" sheetId="24" r:id="rId3"/>
+    <sheet name="4-2" sheetId="36" r:id="rId4"/>
+    <sheet name="4-3" sheetId="37" r:id="rId5"/>
+    <sheet name="4-4" sheetId="38" r:id="rId6"/>
+    <sheet name="4-5" sheetId="39" r:id="rId7"/>
+    <sheet name="4-6" sheetId="40" r:id="rId8"/>
+    <sheet name="4-7" sheetId="41" r:id="rId9"/>
+    <sheet name="4-8" sheetId="42" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1532" uniqueCount="322">
   <si>
     <t>caseID</t>
   </si>
@@ -203,14 +203,6 @@
   </si>
   <si>
     <t>检查instanceEntry.csv中部分参数配置情况</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建第三章副本测试用例</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>hzg</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5337,8 +5329,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B22:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5371,27 +5363,21 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <v>42426</v>
+        <v>42436</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>48</v>
+        <v>321</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>49</v>
+        <v>320</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="18"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>42436</v>
-      </c>
-      <c r="C24" s="17" t="s">
-        <v>323</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>322</v>
-      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
     </row>
@@ -5426,8 +5412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -5489,7 +5475,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -5507,22 +5493,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -5534,13 +5520,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -5552,13 +5538,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -5571,16 +5557,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -5591,13 +5577,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -5609,13 +5595,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -5628,13 +5614,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -5647,10 +5633,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -5671,19 +5657,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -5701,10 +5687,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -5718,14 +5704,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -5738,16 +5724,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -5759,13 +5745,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -5778,14 +5764,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -5798,16 +5784,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -5819,13 +5805,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -5838,11 +5824,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -5875,13 +5861,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -5893,13 +5879,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -5928,16 +5914,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -5952,7 +5938,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -5968,10 +5954,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -5986,10 +5972,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -6004,7 +5990,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -6018,16 +6004,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -6042,7 +6028,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -6058,10 +6044,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -6076,10 +6062,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -6094,7 +6080,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -6103,25 +6089,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -6133,13 +6119,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -6151,13 +6137,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -6169,13 +6155,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -6188,16 +6174,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -6209,13 +6195,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -6227,13 +6213,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -6245,13 +6231,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -6264,16 +6250,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -6285,13 +6271,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -6303,13 +6289,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -6321,13 +6307,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -6376,10 +6362,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -6394,10 +6380,10 @@
         <v>28</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -6415,7 +6401,7 @@
         <v>31</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -6430,10 +6416,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -6448,10 +6434,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -6474,17 +6460,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -7376,8 +7362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K315"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -7439,7 +7425,7 @@
     </row>
     <row r="3" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -7454,23 +7440,23 @@
     <row r="4" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F4" s="22"/>
       <c r="G4" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -7483,13 +7469,13 @@
         <v>2</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -7502,14 +7488,14 @@
         <v>3</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -7522,14 +7508,14 @@
         <v>4</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F7" s="22"/>
       <c r="G7" s="40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -7560,11 +7546,11 @@
     </row>
     <row r="10" spans="1:10" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="35"/>
       <c r="C10" s="43" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="36"/>
@@ -7580,7 +7566,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D11" s="12">
         <v>1</v>
@@ -7593,7 +7579,7 @@
         <v>33</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="32"/>
@@ -7615,7 +7601,7 @@
         <v>37</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I12" s="32"/>
       <c r="J12" s="32"/>
@@ -7633,7 +7619,7 @@
         <v>37</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I13" s="32"/>
       <c r="J13" s="32"/>
@@ -7646,16 +7632,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>313</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I14" s="32"/>
       <c r="J14" s="32"/>
@@ -7667,13 +7653,13 @@
       <c r="D15" s="12"/>
       <c r="E15" s="22"/>
       <c r="F15" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -7686,16 +7672,16 @@
         <v>4</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G16" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>306</v>
-      </c>
       <c r="H16" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -7707,13 +7693,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -7726,16 +7712,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -7747,13 +7733,13 @@
       <c r="D19" s="12"/>
       <c r="E19" s="22"/>
       <c r="F19" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -7775,7 +7761,7 @@
         <v>43</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -7793,7 +7779,7 @@
         <v>43</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I21" s="32"/>
       <c r="J21" s="32"/>
@@ -7813,7 +7799,7 @@
         <v>45</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I22" s="32"/>
       <c r="J22" s="32"/>
@@ -7833,7 +7819,7 @@
         <v>25</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -7850,7 +7836,7 @@
       <c r="A25" s="31"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D25" s="12">
         <v>1</v>
@@ -7904,20 +7890,20 @@
         <v>15</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D29" s="12">
         <v>1</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F29" s="22"/>
       <c r="G29" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -7939,7 +7925,7 @@
         <v>37</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I30" s="32"/>
       <c r="J30" s="32"/>
@@ -7957,7 +7943,7 @@
         <v>37</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -7970,16 +7956,16 @@
         <v>3</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G32" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="G32" s="23" t="s">
-        <v>313</v>
-      </c>
       <c r="H32" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I32" s="32"/>
       <c r="J32" s="32"/>
@@ -7991,13 +7977,13 @@
       <c r="D33" s="12"/>
       <c r="E33" s="22"/>
       <c r="F33" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G33" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -8010,16 +7996,16 @@
         <v>4</v>
       </c>
       <c r="E34" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G34" s="23" t="s">
-        <v>306</v>
-      </c>
       <c r="H34" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -8031,13 +8017,13 @@
       <c r="D35" s="12"/>
       <c r="E35" s="22"/>
       <c r="F35" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G35" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I35" s="32"/>
       <c r="J35" s="32"/>
@@ -8050,16 +8036,16 @@
         <v>5</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G36" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I36" s="32"/>
       <c r="J36" s="32"/>
@@ -8071,13 +8057,13 @@
       <c r="D37" s="12"/>
       <c r="E37" s="22"/>
       <c r="F37" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G37" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -8099,7 +8085,7 @@
         <v>43</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -8117,7 +8103,7 @@
         <v>43</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -8137,7 +8123,7 @@
         <v>45</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -8157,7 +8143,7 @@
         <v>25</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -8174,7 +8160,7 @@
       <c r="A43" s="31"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D43" s="12">
         <v>1</v>
@@ -8240,20 +8226,20 @@
         <v>15</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D48" s="12">
         <v>1</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F48" s="22"/>
       <c r="G48" s="23" t="s">
         <v>33</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -8275,7 +8261,7 @@
         <v>37</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I49" s="32"/>
       <c r="J49" s="32"/>
@@ -8293,7 +8279,7 @@
         <v>37</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I50" s="32"/>
       <c r="J50" s="32"/>
@@ -8306,16 +8292,16 @@
         <v>3</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F51" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="G51" s="23" t="s">
-        <v>313</v>
-      </c>
       <c r="H51" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -8327,13 +8313,13 @@
       <c r="D52" s="12"/>
       <c r="E52" s="22"/>
       <c r="F52" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -8346,16 +8332,16 @@
         <v>4</v>
       </c>
       <c r="E53" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G53" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="F53" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G53" s="23" t="s">
-        <v>306</v>
-      </c>
       <c r="H53" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -8367,13 +8353,13 @@
       <c r="D54" s="12"/>
       <c r="E54" s="22"/>
       <c r="F54" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -8386,16 +8372,16 @@
         <v>5</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -8407,13 +8393,13 @@
       <c r="D56" s="12"/>
       <c r="E56" s="22"/>
       <c r="F56" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G56" s="23" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I56" s="32"/>
       <c r="J56" s="32"/>
@@ -8435,7 +8421,7 @@
         <v>43</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I57" s="32"/>
       <c r="J57" s="32"/>
@@ -8453,7 +8439,7 @@
         <v>43</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I58" s="32"/>
       <c r="J58" s="32"/>
@@ -8473,7 +8459,7 @@
         <v>45</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I59" s="32"/>
       <c r="J59" s="32"/>
@@ -8502,7 +8488,7 @@
       <c r="A62" s="31"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D62" s="12">
         <v>1</v>
@@ -9108,8 +9094,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -9171,7 +9157,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -9186,25 +9172,25 @@
     <row r="4" spans="1:15" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -9216,13 +9202,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -9234,13 +9220,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -9253,16 +9239,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -9273,13 +9259,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -9291,13 +9277,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -9310,13 +9296,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -9329,10 +9315,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -9350,22 +9336,22 @@
     <row r="13" spans="1:15" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -9383,10 +9369,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -9400,14 +9386,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -9420,16 +9406,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -9441,13 +9427,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -9460,14 +9446,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -9480,16 +9466,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -9501,13 +9487,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -9520,11 +9506,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -9557,13 +9543,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -9575,13 +9561,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -9610,16 +9596,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -9634,7 +9620,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -9650,10 +9636,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -9668,10 +9654,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -9686,7 +9672,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -9700,16 +9686,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -9724,7 +9710,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -9740,10 +9726,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -9758,10 +9744,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -9776,7 +9762,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -9797,25 +9783,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -9827,13 +9813,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -9845,13 +9831,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -9863,13 +9849,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -9882,16 +9868,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -9903,13 +9889,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -9921,13 +9907,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -9939,13 +9925,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -9958,16 +9944,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -9979,13 +9965,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -9997,13 +9983,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -10015,13 +10001,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -10073,7 +10059,7 @@
         <v>24</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -10091,7 +10077,7 @@
         <v>31</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -10109,7 +10095,7 @@
         <v>30</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -10124,10 +10110,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -10142,10 +10128,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -10168,17 +10154,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -10971,8 +10957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -11034,7 +11020,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -11049,25 +11035,25 @@
     <row r="4" spans="1:15" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="31"/>
       <c r="B4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -11079,13 +11065,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -11097,13 +11083,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -11116,16 +11102,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -11136,13 +11122,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -11154,13 +11140,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -11173,13 +11159,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -11192,10 +11178,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -11213,22 +11199,22 @@
     <row r="13" spans="1:15" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -11246,10 +11232,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -11263,14 +11249,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -11283,16 +11269,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -11304,13 +11290,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -11323,14 +11309,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -11343,16 +11329,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -11364,13 +11350,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -11383,11 +11369,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -11420,13 +11406,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -11438,13 +11424,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -11473,16 +11459,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -11497,7 +11483,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -11513,10 +11499,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -11531,10 +11517,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -11549,7 +11535,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -11563,16 +11549,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -11587,7 +11573,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -11603,10 +11589,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -11621,10 +11607,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -11639,7 +11625,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -11648,25 +11634,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -11678,13 +11664,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -11696,13 +11682,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -11714,13 +11700,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -11733,16 +11719,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -11754,13 +11740,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -11772,13 +11758,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -11790,13 +11776,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -11809,16 +11795,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -11830,13 +11816,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -11848,13 +11834,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -11866,13 +11852,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -11924,7 +11910,7 @@
         <v>24</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -11942,7 +11928,7 @@
         <v>30</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -11960,7 +11946,7 @@
         <v>30</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -11975,10 +11961,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -11993,10 +11979,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -12019,17 +12005,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -12877,8 +12863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51:H55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -12940,7 +12926,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -12958,22 +12944,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -12985,13 +12971,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -13003,13 +12989,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -13022,16 +13008,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -13042,13 +13028,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -13060,13 +13046,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -13079,13 +13065,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -13098,10 +13084,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -13122,19 +13108,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -13152,10 +13138,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -13169,14 +13155,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -13189,16 +13175,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -13210,13 +13196,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -13229,14 +13215,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -13249,16 +13235,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -13270,13 +13256,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -13289,11 +13275,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -13326,13 +13312,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -13344,13 +13330,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -13379,16 +13365,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -13403,7 +13389,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -13419,10 +13405,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -13437,10 +13423,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -13455,7 +13441,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -13469,16 +13455,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -13493,7 +13479,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -13509,10 +13495,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -13527,10 +13513,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -13545,7 +13531,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -13554,25 +13540,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -13584,13 +13570,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -13602,13 +13588,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -13620,13 +13606,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -13639,16 +13625,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -13660,13 +13646,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -13678,13 +13664,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -13696,13 +13682,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -13715,16 +13701,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -13736,13 +13722,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -13754,13 +13740,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -13772,13 +13758,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -13827,10 +13813,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -13845,10 +13831,10 @@
         <v>28</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -13863,10 +13849,10 @@
         <v>29</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -13881,10 +13867,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -13899,10 +13885,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -13925,17 +13911,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -14849,8 +14835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -14912,7 +14898,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -14930,22 +14916,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -14957,13 +14943,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -14975,13 +14961,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -14994,16 +14980,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -15014,13 +15000,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -15032,13 +15018,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -15051,13 +15037,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -15070,10 +15056,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -15094,19 +15080,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -15124,10 +15110,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -15141,14 +15127,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -15161,16 +15147,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -15182,13 +15168,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -15201,14 +15187,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -15221,16 +15207,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -15242,13 +15228,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -15261,11 +15247,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -15298,13 +15284,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -15316,13 +15302,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -15351,16 +15337,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -15375,7 +15361,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -15391,10 +15377,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -15409,10 +15395,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -15427,7 +15413,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -15441,16 +15427,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -15465,7 +15451,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -15481,10 +15467,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -15499,10 +15485,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -15517,7 +15503,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -15526,25 +15512,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -15556,13 +15542,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -15574,13 +15560,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -15592,13 +15578,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -15611,16 +15597,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -15632,13 +15618,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -15650,13 +15636,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -15668,13 +15654,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -15687,16 +15673,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -15708,13 +15694,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -15726,13 +15712,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -15744,13 +15730,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -15799,10 +15785,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -15817,10 +15803,10 @@
         <v>28</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -15835,10 +15821,10 @@
         <v>29</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -15853,10 +15839,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -15871,10 +15857,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -15897,17 +15883,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -16799,8 +16785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -16862,7 +16848,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -16880,22 +16866,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -16907,13 +16893,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -16925,13 +16911,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -16944,16 +16930,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -16964,13 +16950,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -16982,13 +16968,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -17001,13 +16987,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -17020,10 +17006,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -17044,19 +17030,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -17074,10 +17060,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -17091,14 +17077,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -17111,16 +17097,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -17132,13 +17118,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -17151,14 +17137,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -17171,16 +17157,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -17192,13 +17178,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -17211,11 +17197,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -17248,13 +17234,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -17266,13 +17252,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -17301,16 +17287,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -17325,7 +17311,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -17341,10 +17327,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -17359,10 +17345,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -17377,7 +17363,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -17391,16 +17377,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -17415,7 +17401,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -17431,10 +17417,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -17449,10 +17435,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -17467,7 +17453,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -17476,25 +17462,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -17506,13 +17492,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -17524,13 +17510,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -17542,13 +17528,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -17561,16 +17547,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -17582,13 +17568,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -17600,13 +17586,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -17618,13 +17604,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -17637,16 +17623,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -17658,13 +17644,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -17676,13 +17662,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -17694,13 +17680,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -17749,10 +17735,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -17770,7 +17756,7 @@
         <v>31</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -17788,7 +17774,7 @@
         <v>31</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -17803,10 +17789,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -17821,10 +17807,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -17847,17 +17833,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -18749,8 +18735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -18812,7 +18798,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -18830,22 +18816,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -18857,13 +18843,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -18875,13 +18861,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -18894,16 +18880,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -18914,13 +18900,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -18932,13 +18918,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -18951,13 +18937,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -18970,10 +18956,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -18994,19 +18980,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -19024,10 +19010,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -19041,14 +19027,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -19061,16 +19047,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -19082,13 +19068,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -19101,14 +19087,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -19121,16 +19107,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -19142,13 +19128,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -19161,11 +19147,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -19198,13 +19184,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -19216,13 +19202,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -19251,16 +19237,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -19275,7 +19261,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -19291,10 +19277,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -19309,10 +19295,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -19327,7 +19313,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -19341,16 +19327,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -19365,7 +19351,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -19381,10 +19367,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -19399,10 +19385,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -19417,7 +19403,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -19426,25 +19412,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -19456,13 +19442,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -19474,13 +19460,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -19492,13 +19478,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -19511,16 +19497,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -19532,13 +19518,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -19550,13 +19536,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -19568,13 +19554,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -19587,16 +19573,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -19608,13 +19594,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -19626,13 +19612,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -19644,13 +19630,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -19699,10 +19685,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -19717,10 +19703,10 @@
         <v>28</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -19735,10 +19721,10 @@
         <v>29</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -19753,10 +19739,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -19771,10 +19757,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -19797,17 +19783,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
@@ -20699,8 +20685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O326"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37:H48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="14.5" x14ac:dyDescent="0.25"/>
@@ -20762,7 +20748,7 @@
     </row>
     <row r="3" spans="1:15" s="30" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -20780,22 +20766,22 @@
         <v>15</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" s="32"/>
       <c r="J4" s="32"/>
@@ -20807,13 +20793,13 @@
       <c r="D5" s="12"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I5" s="32"/>
       <c r="J5" s="32"/>
@@ -20825,13 +20811,13 @@
       <c r="D6" s="12"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I6" s="32"/>
       <c r="J6" s="32"/>
@@ -20844,16 +20830,16 @@
         <v>2</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" s="32"/>
       <c r="J7" s="32"/>
@@ -20864,13 +20850,13 @@
       <c r="C8" s="24"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" s="32"/>
       <c r="J8" s="32"/>
@@ -20882,13 +20868,13 @@
       <c r="D9" s="12"/>
       <c r="E9" s="22"/>
       <c r="F9" s="22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I9" s="32"/>
       <c r="J9" s="32"/>
@@ -20901,13 +20887,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="32"/>
@@ -20920,10 +20906,10 @@
       <c r="D11" s="12"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="32"/>
@@ -20944,19 +20930,19 @@
         <v>15</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="32"/>
@@ -20974,10 +20960,10 @@
       <c r="D14" s="12"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="41" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="32"/>
@@ -20991,14 +20977,14 @@
         <v>2</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="11" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="32"/>
       <c r="J15" s="32"/>
@@ -21011,16 +20997,16 @@
         <v>3</v>
       </c>
       <c r="E16" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="G16" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
@@ -21032,13 +21018,13 @@
       <c r="D17" s="12"/>
       <c r="E17" s="22"/>
       <c r="F17" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" s="32"/>
       <c r="J17" s="32"/>
@@ -21051,14 +21037,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -21071,16 +21057,16 @@
         <v>5</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" s="32"/>
       <c r="J19" s="32"/>
@@ -21092,13 +21078,13 @@
       <c r="D20" s="12"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" s="32"/>
       <c r="J20" s="32"/>
@@ -21111,11 +21097,11 @@
         <v>6</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="41" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="32"/>
@@ -21148,13 +21134,13 @@
         <v>47</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
@@ -21166,13 +21152,13 @@
       <c r="D24" s="12"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I24" s="32"/>
       <c r="J24" s="32"/>
@@ -21201,16 +21187,16 @@
         <v>1</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F26" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G26" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I26" s="32"/>
       <c r="J26" s="32"/>
@@ -21225,7 +21211,7 @@
         <v>18</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="32"/>
@@ -21241,10 +21227,10 @@
         <v>23</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I28" s="32"/>
       <c r="J28" s="32"/>
@@ -21259,10 +21245,10 @@
         <v>19</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I29" s="32"/>
       <c r="J29" s="32"/>
@@ -21277,7 +21263,7 @@
         <v>20</v>
       </c>
       <c r="G30" s="41" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="32"/>
@@ -21291,16 +21277,16 @@
         <v>2</v>
       </c>
       <c r="E31" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I31" s="32"/>
       <c r="J31" s="32"/>
@@ -21315,7 +21301,7 @@
         <v>18</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="32"/>
@@ -21331,10 +21317,10 @@
         <v>23</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I33" s="32"/>
       <c r="J33" s="32"/>
@@ -21349,10 +21335,10 @@
         <v>19</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I34" s="32"/>
       <c r="J34" s="32"/>
@@ -21367,7 +21353,7 @@
         <v>20</v>
       </c>
       <c r="G35" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H35" s="4"/>
       <c r="I35" s="32"/>
@@ -21376,25 +21362,25 @@
     <row r="37" spans="1:10" s="25" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I37" s="32"/>
       <c r="J37" s="32"/>
@@ -21406,13 +21392,13 @@
       <c r="D38" s="12"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I38" s="32"/>
       <c r="J38" s="32"/>
@@ -21424,13 +21410,13 @@
       <c r="D39" s="12"/>
       <c r="E39" s="22"/>
       <c r="F39" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I39" s="32"/>
       <c r="J39" s="32"/>
@@ -21442,13 +21428,13 @@
       <c r="D40" s="12"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I40" s="32"/>
       <c r="J40" s="32"/>
@@ -21461,16 +21447,16 @@
         <v>2</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I41" s="32"/>
       <c r="J41" s="32"/>
@@ -21482,13 +21468,13 @@
       <c r="D42" s="12"/>
       <c r="E42" s="22"/>
       <c r="F42" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
@@ -21500,13 +21486,13 @@
       <c r="D43" s="12"/>
       <c r="E43" s="22"/>
       <c r="F43" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I43" s="32"/>
       <c r="J43" s="32"/>
@@ -21518,13 +21504,13 @@
       <c r="D44" s="12"/>
       <c r="E44" s="22"/>
       <c r="F44" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I44" s="32"/>
       <c r="J44" s="32"/>
@@ -21537,16 +21523,16 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I45" s="32"/>
       <c r="J45" s="32"/>
@@ -21558,13 +21544,13 @@
       <c r="D46" s="12"/>
       <c r="E46" s="22"/>
       <c r="F46" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I46" s="32"/>
       <c r="J46" s="32"/>
@@ -21576,13 +21562,13 @@
       <c r="D47" s="12"/>
       <c r="E47" s="22"/>
       <c r="F47" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I47" s="32"/>
       <c r="J47" s="32"/>
@@ -21594,13 +21580,13 @@
       <c r="D48" s="12"/>
       <c r="E48" s="22"/>
       <c r="F48" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I48" s="32"/>
       <c r="J48" s="32"/>
@@ -21649,10 +21635,10 @@
         <v>17</v>
       </c>
       <c r="G51" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I51" s="32"/>
       <c r="J51" s="32"/>
@@ -21670,7 +21656,7 @@
         <v>31</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I52" s="32"/>
       <c r="J52" s="32"/>
@@ -21685,10 +21671,10 @@
         <v>29</v>
       </c>
       <c r="G53" s="23" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I53" s="32"/>
       <c r="J53" s="32"/>
@@ -21703,10 +21689,10 @@
         <v>26</v>
       </c>
       <c r="G54" s="23" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I54" s="32"/>
       <c r="J54" s="32"/>
@@ -21721,10 +21707,10 @@
         <v>27</v>
       </c>
       <c r="G55" s="23" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I55" s="32"/>
       <c r="J55" s="32"/>
@@ -21747,17 +21733,17 @@
         <v>15</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="41" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="H57" s="4"/>
       <c r="I57" s="32"/>
